--- a/model_2.xlsx
+++ b/model_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniebaumgartner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniebaumgartner/Desktop/Bleeding Scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B43F495-ECDD-5B41-8FF9-AF01F7659DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD73CF-3E01-A144-80B2-CABD762169EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="540" windowWidth="27440" windowHeight="16440" xr2:uid="{1F658131-EA06-C74C-BDA0-6C90371BA460}"/>
+    <workbookView xWindow="5040" yWindow="1560" windowWidth="27440" windowHeight="16440" xr2:uid="{1F658131-EA06-C74C-BDA0-6C90371BA460}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,22 +59,22 @@
     <t>threshold</t>
   </si>
   <si>
-    <t>HAS_BLED_SCORE</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>HIGH_RISK_ALC</t>
-  </si>
-  <si>
-    <t>PLATELET_INHIB</t>
-  </si>
-  <si>
-    <t>ORAL_ANTICOAG</t>
-  </si>
-  <si>
-    <t>BRIDGING</t>
+    <t>HAS-BLED Socre</t>
+  </si>
+  <si>
+    <t>High-Risk Alcohol Consumption</t>
+  </si>
+  <si>
+    <t>Oral Ant. Therapy</t>
+  </si>
+  <si>
+    <t>Plat. Aggr. Inhibitor Therapy</t>
+  </si>
+  <si>
+    <t>Perioperative Bridging Therapy</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2.8400000000000002E-2</v>
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1.0074000000000001</v>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.5272</v>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>5</v>

--- a/model_2.xlsx
+++ b/model_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniebaumgartner/Desktop/Bleeding Scores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniebaumgartner/Downloads/nomogram_risk-main 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD73CF-3E01-A144-80B2-CABD762169EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7B9920-30DD-6F40-825B-02E3EF12C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1560" windowWidth="27440" windowHeight="16440" xr2:uid="{1F658131-EA06-C74C-BDA0-6C90371BA460}"/>
+    <workbookView xWindow="1360" yWindow="540" windowWidth="27440" windowHeight="16440" xr2:uid="{1F658131-EA06-C74C-BDA0-6C90371BA460}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>feature</t>
   </si>
@@ -59,22 +59,25 @@
     <t>threshold</t>
   </si>
   <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>HAS-BLED Socre</t>
-  </si>
-  <si>
     <t>High-Risk Alcohol Consumption</t>
   </si>
   <si>
-    <t>Oral Ant. Therapy</t>
-  </si>
-  <si>
-    <t>Plat. Aggr. Inhibitor Therapy</t>
-  </si>
-  <si>
     <t>Perioperative Bridging Therapy</t>
+  </si>
+  <si>
+    <t>HAS-BLED Score</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Platelet Aggregation Inhibitor Therapy</t>
+  </si>
+  <si>
+    <t>Oral Anticoagulation Therapy</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G25" sqref="A9:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +500,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2.8400000000000002E-2</v>
@@ -509,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -517,7 +520,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0.95750000000000002</v>
@@ -529,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -537,7 +540,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1.0074000000000001</v>
@@ -549,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -557,7 +560,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.5272</v>
@@ -569,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -577,7 +580,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1.0557000000000001</v>
@@ -589,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>5</v>

--- a/model_2.xlsx
+++ b/model_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniebaumgartner/Downloads/nomogram_risk-main 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE7B9920-30DD-6F40-825B-02E3EF12C6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844AC64F-4DC1-CB44-A70E-9BF8CDD31683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="540" windowWidth="27440" windowHeight="16440" xr2:uid="{1F658131-EA06-C74C-BDA0-6C90371BA460}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>feature</t>
   </si>
@@ -68,16 +68,13 @@
     <t>HAS-BLED Score</t>
   </si>
   <si>
-    <t>cont</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
     <t>Platelet Aggregation Inhibitor Therapy</t>
   </si>
   <si>
     <t>Oral Anticoagulation Therapy</t>
+  </si>
+  <si>
+    <t>numeric</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="A9:G25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -532,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -540,7 +537,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1.0074000000000001</v>
@@ -552,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -560,7 +557,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.5272</v>
@@ -572,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -592,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>5</v>
